--- a/heatload_calc/Python/schedule_spec.xlsx
+++ b/heatload_calc/Python/schedule_spec.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satoh\Documents\sourcetree\kiseisokue7\e7_inputdataconvert\heatload_calc\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5831276E-D71D-47E6-AD4F-8F64BC1BF212}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E6D6CC-5A0C-434C-BBF4-456AF6CED86D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0D653370-8C4F-470E-9B0B-2CCF4396EAD0}"/>
+    <workbookView xWindow="1044" yWindow="3744" windowWidth="17280" windowHeight="8964" xr2:uid="{0D653370-8C4F-470E-9B0B-2CCF4396EAD0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -906,10 +906,10 @@
   <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="G27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
+      <selection pane="bottomRight" activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.25"/>
@@ -1025,10 +1025,10 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -1050,10 +1050,10 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -1081,10 +1081,10 @@
     <row r="6" spans="1:14" ht="37.799999999999997" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
@@ -1114,10 +1114,10 @@
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="D7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
         <v>26</v>
@@ -1147,10 +1147,10 @@
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="E8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="2"/>
       <c r="G8" s="2" t="s">
         <v>20</v>
       </c>
@@ -1174,10 +1174,10 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -1205,10 +1205,10 @@
     <row r="10" spans="1:14" ht="37.799999999999997" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
@@ -1238,10 +1238,10 @@
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="D11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
         <v>26</v>
@@ -1271,10 +1271,10 @@
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="E12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="2"/>
       <c r="G12" s="2" t="s">
         <v>20</v>
       </c>
@@ -1298,10 +1298,10 @@
     </row>
     <row r="13" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="B13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -1329,10 +1329,10 @@
     <row r="14" spans="1:14" ht="37.799999999999997" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="C14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2" t="s">
@@ -1362,10 +1362,10 @@
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="D15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2" t="s">
         <v>26</v>
@@ -1395,10 +1395,10 @@
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="E16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="2"/>
       <c r="G16" s="2" t="s">
         <v>20</v>
       </c>
@@ -1422,10 +1422,10 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="B17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -1453,10 +1453,10 @@
     <row r="18" spans="1:14" ht="37.799999999999997" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="C18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2" t="s">
@@ -1486,10 +1486,10 @@
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="D19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2" t="s">
         <v>26</v>
@@ -1519,10 +1519,10 @@
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="E20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="2"/>
       <c r="G20" s="2" t="s">
         <v>20</v>
       </c>
@@ -1546,10 +1546,10 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="B21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -1577,10 +1577,10 @@
     <row r="22" spans="1:14" ht="37.799999999999997" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="C22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2" t="s">
@@ -1610,10 +1610,10 @@
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="D23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2" t="s">
         <v>26</v>
@@ -1643,10 +1643,10 @@
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="E24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="2"/>
       <c r="G24" s="2" t="s">
         <v>20</v>
       </c>
@@ -1670,10 +1670,10 @@
     </row>
     <row r="25" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="B25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -1701,10 +1701,10 @@
     <row r="26" spans="1:14" ht="37.799999999999997" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="C26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2" t="s">
@@ -1734,10 +1734,10 @@
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="D27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2" t="s">
         <v>26</v>
@@ -1767,10 +1767,10 @@
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="E28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="2"/>
       <c r="G28" s="2" t="s">
         <v>20</v>
       </c>
@@ -1794,10 +1794,10 @@
     </row>
     <row r="29" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="B29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -1825,10 +1825,10 @@
     <row r="30" spans="1:14" ht="37.799999999999997" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="C30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2" t="s">
@@ -1858,10 +1858,10 @@
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="D31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2" t="s">
         <v>26</v>
@@ -1891,10 +1891,10 @@
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="E32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" s="2"/>
       <c r="G32" s="2" t="s">
         <v>20</v>
       </c>
@@ -1918,10 +1918,10 @@
     </row>
     <row r="33" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="B33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -1949,10 +1949,10 @@
     <row r="34" spans="1:14" ht="37.799999999999997" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="C34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2" t="s">
@@ -1982,10 +1982,10 @@
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="D35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2" t="s">
         <v>26</v>
@@ -2015,10 +2015,10 @@
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="E36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36" s="2"/>
       <c r="G36" s="2" t="s">
         <v>20</v>
       </c>

--- a/heatload_calc/Python/schedule_spec.xlsx
+++ b/heatload_calc/Python/schedule_spec.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satoh\Documents\sourcetree\kiseisokue7\e7_inputdataconvert\heatload_calc\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E6D6CC-5A0C-434C-BBF4-456AF6CED86D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A154BB-672C-4D8C-B328-7C31D39AF365}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1044" yWindow="3744" windowWidth="17280" windowHeight="8964" xr2:uid="{0D653370-8C4F-470E-9B0B-2CCF4396EAD0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0D653370-8C4F-470E-9B0B-2CCF4396EAD0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="55">
   <si>
     <t>calendar</t>
     <phoneticPr fontId="2"/>
@@ -204,13 +204,6 @@
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>人</t>
-    <rPh sb="0" eb="1">
-      <t>ニン</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -458,6 +451,24 @@
       <t>セッテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>人</t>
+    <rPh sb="0" eb="1">
+      <t>ニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>室名</t>
+    <rPh sb="0" eb="2">
+      <t>シツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>room_name</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -909,7 +920,7 @@
       <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G35" sqref="G35"/>
+      <selection pane="bottomRight" activeCell="J7" sqref="J7:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.25"/>
@@ -1058,7 +1069,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>19</v>
@@ -1068,15 +1079,9 @@
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-      <c r="L5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
     </row>
     <row r="6" spans="1:14" ht="37.799999999999997" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
@@ -1088,10 +1093,10 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>6</v>
@@ -1102,15 +1107,11 @@
       <c r="K6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="1:14" ht="37.799999999999997" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1120,26 +1121,22 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M7" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
       <c r="N7" s="2"/>
     </row>
     <row r="8" spans="1:14" ht="50.4" x14ac:dyDescent="0.25">
@@ -1155,22 +1152,26 @@
         <v>20</v>
       </c>
       <c r="H8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J8" s="3" t="s">
+      <c r="K8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="L8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
@@ -1182,25 +1183,19 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-      <c r="L9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
     </row>
     <row r="10" spans="1:14" ht="37.799999999999997" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -1212,10 +1207,10 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>6</v>
@@ -1226,12 +1221,8 @@
       <c r="K10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
       <c r="N10" s="2"/>
     </row>
     <row r="11" spans="1:14" ht="37.799999999999997" x14ac:dyDescent="0.25">
@@ -1244,26 +1235,22 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="I11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J11" s="2" t="s">
+      <c r="K11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
       <c r="N11" s="2"/>
     </row>
     <row r="12" spans="1:14" ht="50.4" x14ac:dyDescent="0.25">
@@ -1279,22 +1266,26 @@
         <v>20</v>
       </c>
       <c r="H12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J12" s="3" t="s">
+      <c r="K12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="L12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="13" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
@@ -1306,10 +1297,10 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>6</v>
@@ -1317,13 +1308,13 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="37.799999999999997" x14ac:dyDescent="0.25">
@@ -1336,10 +1327,10 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>6</v>
@@ -1368,19 +1359,19 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="I15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J15" s="2" t="s">
+      <c r="K15" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>13</v>
@@ -1403,16 +1394,16 @@
         <v>20</v>
       </c>
       <c r="H16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J16" s="3" t="s">
+      <c r="K16" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>21</v>
@@ -1430,10 +1421,10 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>6</v>
@@ -1441,13 +1432,13 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="M17" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="N17" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="37.799999999999997" x14ac:dyDescent="0.25">
@@ -1460,10 +1451,10 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>6</v>
@@ -1492,19 +1483,19 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="I19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J19" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J19" s="2" t="s">
+      <c r="K19" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>13</v>
@@ -1527,16 +1518,16 @@
         <v>20</v>
       </c>
       <c r="H20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J20" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J20" s="3" t="s">
+      <c r="K20" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>21</v>
@@ -1554,10 +1545,10 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>6</v>
@@ -1565,13 +1556,13 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="37.799999999999997" x14ac:dyDescent="0.25">
@@ -1584,10 +1575,10 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>6</v>
@@ -1616,19 +1607,19 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="I23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J23" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J23" s="2" t="s">
+      <c r="K23" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>13</v>
@@ -1651,16 +1642,16 @@
         <v>20</v>
       </c>
       <c r="H24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J24" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I24" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J24" s="3" t="s">
+      <c r="K24" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>21</v>
@@ -1678,10 +1669,10 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>6</v>
@@ -1689,13 +1680,13 @@
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="37.799999999999997" x14ac:dyDescent="0.25">
@@ -1708,10 +1699,10 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>6</v>
@@ -1740,19 +1731,19 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="I27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J27" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I27" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J27" s="2" t="s">
+      <c r="K27" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>13</v>
@@ -1775,16 +1766,16 @@
         <v>20</v>
       </c>
       <c r="H28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J28" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I28" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J28" s="3" t="s">
+      <c r="K28" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>21</v>
@@ -1802,10 +1793,10 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>6</v>
@@ -1813,13 +1804,13 @@
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="37.799999999999997" x14ac:dyDescent="0.25">
@@ -1832,10 +1823,10 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>6</v>
@@ -1864,19 +1855,19 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="I31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J31" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I31" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J31" s="2" t="s">
+      <c r="K31" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>13</v>
@@ -1899,16 +1890,16 @@
         <v>20</v>
       </c>
       <c r="H32" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J32" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I32" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J32" s="3" t="s">
+      <c r="K32" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="L32" s="2" t="s">
         <v>21</v>
@@ -1926,10 +1917,10 @@
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>6</v>
@@ -1937,13 +1928,13 @@
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="37.799999999999997" x14ac:dyDescent="0.25">
@@ -1956,10 +1947,10 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>6</v>
@@ -1988,19 +1979,19 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H35" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H35" s="2" t="s">
+      <c r="I35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J35" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I35" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J35" s="2" t="s">
+      <c r="K35" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="L35" s="2" t="s">
         <v>13</v>
@@ -2023,16 +2014,16 @@
         <v>20</v>
       </c>
       <c r="H36" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J36" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I36" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J36" s="3" t="s">
+      <c r="K36" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="L36" s="2" t="s">
         <v>21</v>

--- a/heatload_calc/Python/schedule_spec.xlsx
+++ b/heatload_calc/Python/schedule_spec.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satoh\Documents\sourcetree\kiseisokue7\e7_inputdataconvert\heatload_calc\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A154BB-672C-4D8C-B328-7C31D39AF365}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D1EAFBA-EBB1-402B-9DB5-1A7F3F8E1A53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0D653370-8C4F-470E-9B0B-2CCF4396EAD0}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="50">
   <si>
     <t>calendar</t>
     <phoneticPr fontId="2"/>
@@ -159,10 +159,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>str</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>－</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -203,14 +199,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>List[int]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>week</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -220,43 +208,6 @@
       <t>ヨウビ</t>
     </rPh>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>室タイプ</t>
-    <rPh sb="0" eb="1">
-      <t>シツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>room_type</t>
-  </si>
-  <si>
-    <t>1:main_occupant_room
-2:other_occupant_room
-3:non_occupant_room</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1:主たる居室
-2:その他の居室
-3:非居室</t>
-    <rPh sb="2" eb="3">
-      <t>シュ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>キョシツ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ホカ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>キョシツ</t>
-    </rPh>
-    <rPh sb="19" eb="22">
-      <t>ヒキョシツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>number_of_households</t>
@@ -468,6 +419,14 @@
   </si>
   <si>
     <t>room_name</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>List[float]</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -914,13 +873,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5508221-EB6D-49A4-9931-A19DA985284D}">
-  <dimension ref="A1:N36"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J7" sqref="J7:K7"/>
+      <selection pane="bottomRight" activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.25"/>
@@ -1026,13 +986,13 @@
         <v>12</v>
       </c>
       <c r="L3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -1045,10 +1005,10 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>6</v>
@@ -1059,248 +1019,254 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="50.4" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
+      <c r="J5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:14" ht="37.799999999999997" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="37.799999999999997" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="1:14" ht="50.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
       <c r="L8" s="2" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-    </row>
-    <row r="10" spans="1:14" ht="37.799999999999997" x14ac:dyDescent="0.25">
+      <c r="L9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="1:14" ht="37.799999999999997" x14ac:dyDescent="0.25">
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K11" s="2" t="s">
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-    </row>
-    <row r="12" spans="1:14" ht="50.4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="H12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="M12" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>6</v>
@@ -1308,728 +1274,74 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="37.799999999999997" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
       <c r="L14" s="2" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N14" s="2"/>
-    </row>
-    <row r="15" spans="1:14" ht="37.799999999999997" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K15" s="2" t="s">
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N15" s="2"/>
-    </row>
-    <row r="16" spans="1:14" ht="50.4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="37.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N18" s="2"/>
-    </row>
-    <row r="19" spans="1:14" ht="37.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N19" s="2"/>
-    </row>
-    <row r="20" spans="1:14" ht="50.4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="37.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N22" s="2"/>
-    </row>
-    <row r="23" spans="1:14" ht="37.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N23" s="2"/>
-    </row>
-    <row r="24" spans="1:14" ht="50.4" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-    </row>
-    <row r="25" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="37.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N26" s="2"/>
-    </row>
-    <row r="27" spans="1:14" ht="37.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N27" s="2"/>
-    </row>
-    <row r="28" spans="1:14" ht="50.4" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-    </row>
-    <row r="29" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="37.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M30" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N30" s="2"/>
-    </row>
-    <row r="31" spans="1:14" ht="37.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M31" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N31" s="2"/>
-    </row>
-    <row r="32" spans="1:14" ht="50.4" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-    </row>
-    <row r="33" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M33" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="N33" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" ht="37.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N34" s="2"/>
-    </row>
-    <row r="35" spans="1:14" ht="37.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N35" s="2"/>
-    </row>
-    <row r="36" spans="1:14" ht="50.4" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
